--- a/Codigo/Bases/datos_administrativos/Indicadores_de_Género/EDUCACIÓN/Educación.xlsx
+++ b/Codigo/Bases/datos_administrativos/Indicadores_de_Género/EDUCACIÓN/Educación.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ineedso\Desktop\DESA 2023\SOLICITUDES DE INFORMACION 2023\Indicadores de Género\EDUCACIÓN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgalvez\OneDrive - ine.gob.gt\Documentos\GitHub\CompendioGenero2023\Codigo\Bases\datos_administrativos\Indicadores_de_Género\EDUCACIÓN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BD4014-7EF7-4525-A327-C3BAB1293BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEA1B91-2374-47F7-8B51-6C5C19F7BBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{47FD8A6C-84B7-4DDA-B99C-2C5D2BD14377}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{47FD8A6C-84B7-4DDA-B99C-2C5D2BD14377}"/>
   </bookViews>
   <sheets>
     <sheet name="3.3" sheetId="1" r:id="rId1"/>
@@ -889,7 +889,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1187,11 +1187,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1232B14-DA9B-4EEA-AF2F-C7C541E4621C}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="11.42578125" style="9"/>
   </cols>
@@ -1322,7 +1322,7 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" style="9" customWidth="1"/>
     <col min="2" max="9" width="15.42578125" style="9" customWidth="1"/>
@@ -1929,7 +1929,7 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="11.42578125" style="9"/>
   </cols>
@@ -2026,7 +2026,7 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" style="9" customWidth="1"/>
     <col min="2" max="9" width="15.42578125" style="9" customWidth="1"/>
@@ -2634,7 +2634,7 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="9"/>
     <col min="2" max="2" width="13.140625" style="9" customWidth="1"/>
@@ -2776,7 +2776,7 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="9"/>
     <col min="2" max="2" width="13.140625" style="9" customWidth="1"/>
@@ -2932,7 +2932,7 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" style="9" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="9" customWidth="1"/>
@@ -3144,7 +3144,7 @@
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="9"/>
     <col min="2" max="2" width="13.140625" style="9" customWidth="1"/>
@@ -3275,7 +3275,7 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="9"/>
     <col min="2" max="2" width="13.140625" style="9" customWidth="1"/>
@@ -3431,7 +3431,7 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" style="9" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="9" customWidth="1"/>
@@ -3618,13 +3618,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BBDAEA-F753-4E34-B015-99EA934D222C}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" sqref="A1:I1"/>
+      <selection pane="topRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" style="9" customWidth="1"/>
     <col min="2" max="9" width="15.42578125" style="9" customWidth="1"/>
@@ -4393,7 +4393,7 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="11.42578125" style="9"/>
   </cols>
@@ -4523,7 +4523,7 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" style="9" customWidth="1"/>
     <col min="2" max="9" width="15.42578125" style="9" customWidth="1"/>
@@ -5285,7 +5285,7 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="11.42578125" style="9"/>
   </cols>
@@ -5396,7 +5396,7 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" style="9" customWidth="1"/>
     <col min="2" max="9" width="15.42578125" style="9" customWidth="1"/>
@@ -6146,7 +6146,7 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="9"/>
     <col min="2" max="4" width="11.5703125" style="9" customWidth="1"/>
@@ -6249,7 +6249,7 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="9" customWidth="1"/>
     <col min="2" max="9" width="15.42578125" style="9" customWidth="1"/>
@@ -6856,7 +6856,7 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="11.42578125" style="9"/>
   </cols>

--- a/Codigo/Bases/datos_administrativos/Indicadores_de_Género/EDUCACIÓN/Educación.xlsx
+++ b/Codigo/Bases/datos_administrativos/Indicadores_de_Género/EDUCACIÓN/Educación.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgalvez\OneDrive - ine.gob.gt\Documentos\GitHub\CompendioGenero2023\Codigo\Bases\datos_administrativos\Indicadores_de_Género\EDUCACIÓN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEA1B91-2374-47F7-8B51-6C5C19F7BBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F1C1C1-706C-4BA5-A09A-B3C186536D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{47FD8A6C-84B7-4DDA-B99C-2C5D2BD14377}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{47FD8A6C-84B7-4DDA-B99C-2C5D2BD14377}"/>
   </bookViews>
   <sheets>
     <sheet name="3.3" sheetId="1" r:id="rId1"/>
@@ -3618,10 +3618,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BBDAEA-F753-4E34-B015-99EA934D222C}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="XEM1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="L12" sqref="L12"/>
+      <selection pane="topRight" activeCell="XEN4" sqref="XEN4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Codigo/Bases/datos_administrativos/Indicadores_de_Género/EDUCACIÓN/Educación.xlsx
+++ b/Codigo/Bases/datos_administrativos/Indicadores_de_Género/EDUCACIÓN/Educación.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgalvez\OneDrive - ine.gob.gt\Documentos\GitHub\CompendioGenero2023\Codigo\Bases\datos_administrativos\Indicadores_de_Género\EDUCACIÓN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F1C1C1-706C-4BA5-A09A-B3C186536D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364E0263-D7C3-422C-BEDD-06C15F13145C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{47FD8A6C-84B7-4DDA-B99C-2C5D2BD14377}"/>
+    <workbookView xWindow="31965" yWindow="1110" windowWidth="16455" windowHeight="9000" activeTab="1" xr2:uid="{47FD8A6C-84B7-4DDA-B99C-2C5D2BD14377}"/>
   </bookViews>
   <sheets>
     <sheet name="3.3" sheetId="1" r:id="rId1"/>
@@ -3619,9 +3619,9 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="XEM1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="XEN4" sqref="XEN4"/>
+      <selection pane="topRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
